--- a/DWD patients reporting.xlsx
+++ b/DWD patients reporting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chslemp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A511D99D-E265-43DE-BFEE-E7D777871315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{075E0DCD-7256-4402-A6AC-9D8F453841AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="1395" windowWidth="23565" windowHeight="19230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5510" yWindow="14290" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient" sheetId="1" r:id="rId1"/>
@@ -33,20 +33,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="184">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Admission Date</t>
+  </si>
+  <si>
+    <t>Admit Reason</t>
+  </si>
+  <si>
     <t>CHI</t>
   </si>
   <si>
-    <t>Admission Date</t>
-  </si>
-  <si>
-    <t>Admit Reason</t>
-  </si>
-  <si>
     <t>Patient NOK</t>
   </si>
   <si>
@@ -56,6 +56,9 @@
     <t>Post Code</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Aggression Concern Detail</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
     <t>Confirm Care Restart</t>
   </si>
   <si>
+    <t>Confirm Community Readiness</t>
+  </si>
+  <si>
     <t>Confirm Meds and Support</t>
   </si>
   <si>
@@ -113,19 +119,13 @@
     <t>DMT Summary</t>
   </si>
   <si>
+    <t>DNR Date</t>
+  </si>
+  <si>
     <t>EOL Wishes</t>
   </si>
   <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>Equipment List</t>
-  </si>
-  <si>
-    <t>Equipment Ordered</t>
-  </si>
-  <si>
-    <t>Equipment Provided</t>
+    <t>Equipment Avail</t>
   </si>
   <si>
     <t>Existing Care Package</t>
@@ -179,16 +179,31 @@
     <t>Life Expectancy</t>
   </si>
   <si>
+    <t>Medical History</t>
+  </si>
+  <si>
     <t>Meds Support Detail</t>
   </si>
   <si>
     <t>Mobility Aids Used</t>
   </si>
   <si>
+    <t>Mobility comments</t>
+  </si>
+  <si>
     <t>Mobility Level</t>
   </si>
   <si>
-    <t>Named Lead in Community</t>
+    <t>New Equipment</t>
+  </si>
+  <si>
+    <t>Ongoing Medical</t>
+  </si>
+  <si>
+    <t>Other info acute</t>
+  </si>
+  <si>
+    <t>Other info community</t>
   </si>
   <si>
     <t>Overnight Needs</t>
@@ -233,6 +248,9 @@
     <t>Syringe Driver</t>
   </si>
   <si>
+    <t>Toilet comments</t>
+  </si>
+  <si>
     <t>Toilet Support</t>
   </si>
   <si>
@@ -254,10 +272,7 @@
     <t>Wound Care</t>
   </si>
   <si>
-    <t>Ongoing Medical Needs</t>
-  </si>
-  <si>
-    <t>Ongoing Details</t>
+    <t>Created By (Lookup)</t>
   </si>
   <si>
     <t>Created On</t>
@@ -267,13 +282,324 @@
   </si>
   <si>
     <t>Modified On</t>
+  </si>
+  <si>
+    <t>Current Hospital</t>
+  </si>
+  <si>
+    <t>Current Ward</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Donellen</t>
+  </si>
+  <si>
+    <t>heart attack</t>
+  </si>
+  <si>
+    <t>Neal2</t>
+  </si>
+  <si>
+    <t>ky118xx</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/message/19%3adca0f318c9224f4ea9972a7d80e5eeb4%40thread.tacv2/1677946901606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1123
+123123
+</t>
+  </si>
+  <si>
+    <t>9fbb6f1a-22b5-ed11-b596-002248077bd7</t>
+  </si>
+  <si>
+    <t>2023-04-25T23:00:00Z</t>
+  </si>
+  <si>
+    <t>Caithness</t>
+  </si>
+  <si>
+    <t>Barney Dino</t>
+  </si>
+  <si>
+    <t>2023-04-24T23:00:00Z</t>
+  </si>
+  <si>
+    <t>tesla</t>
+  </si>
+  <si>
+    <t>OMD</t>
+  </si>
+  <si>
+    <t>ky40ee</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Badenoch &amp; Strathspey</t>
+  </si>
+  <si>
+    <t>2A</t>
+  </si>
+  <si>
+    <t>Inverness</t>
+  </si>
+  <si>
+    <t>2023-05-24T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-27T14:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-27T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-02-23T13:08:09Z</t>
+  </si>
+  <si>
+    <t>fe03713f-de68-ed11-81ac-00224842b6ce</t>
+  </si>
+  <si>
+    <t>2023-03-04T16:19:50Z</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/message/19%3a7cc45e7d0ef0476d99cac8b5ef2d1c4b%40thread.tacv2/1682480506580</t>
+  </si>
+  <si>
+    <t>AllanD@M365x041811.OnMicrosoft.com</t>
+  </si>
+  <si>
+    <t>Rosebank</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>2023-04-30T06:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-02-12T13:23:50Z</t>
+  </si>
+  <si>
+    <t>2023-03-04T16:19:33Z</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>2023-04-28T23:00:00Z</t>
+  </si>
+  <si>
+    <t>Thomas Dolby</t>
+  </si>
+  <si>
+    <t>2023-04-09T23:00:00Z</t>
+  </si>
+  <si>
+    <t>car crash</t>
+  </si>
+  <si>
+    <t>Europa Twins</t>
+  </si>
+  <si>
+    <t>ey128rf</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/message/19:7cc45e7d0ef0476d99cac8b5ef2d1c4b@thread.tacv2/1677338539974?tenantId=c1cea889-a105-46e2-9be1-754043d7c84f&amp;groupId=52fa666a-e744-4291-a254-12feb4001685&amp;parentMessageId=1677338539974&amp;teamName=Dietetics%20Glasgow&amp;channelName=Inverness&amp;createdTime=1677338539974&amp;allowXTenantAccess=false</t>
+  </si>
+  <si>
+    <t>Raigmore</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>2023-04-13T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-15T23:00:00Z</t>
+  </si>
+  <si>
+    <t>Thomas Digby</t>
+  </si>
+  <si>
+    <t>Martin Fries</t>
+  </si>
+  <si>
+    <t>2023-04-16T23:00:00Z</t>
+  </si>
+  <si>
+    <t>sare toe</t>
+  </si>
+  <si>
+    <t>Eden</t>
+  </si>
+  <si>
+    <t>EH213ZZ</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/message/19%3adca0f318c9224f4ea9972a7d80e5eeb4%40thread.tacv2/1677831405035</t>
+  </si>
+  <si>
+    <t>2023-03-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-29T23:00:00Z</t>
+  </si>
+  <si>
+    <t>Kirstin</t>
+  </si>
+  <si>
+    <t>2023-04-17T23:00:00Z</t>
+  </si>
+  <si>
+    <t>broken finger</t>
+  </si>
+  <si>
+    <t>chris</t>
+  </si>
+  <si>
+    <t>ky129lj</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/message/19%3a7cc45e7d0ef0476d99cac8b5ef2d1c4b%40thread.tacv2/1678966108649</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>as df
+as df
+sa d</t>
+  </si>
+  <si>
+    <t>asdfl;kasdf as
+a sdf 
+as df
+a sdf</t>
+  </si>
+  <si>
+    <t>2023-04-26T23:00:00Z</t>
+  </si>
+  <si>
+    <t>Alex MacArthur</t>
+  </si>
+  <si>
+    <t>2023-04-10T23:00:00Z</t>
+  </si>
+  <si>
+    <t>really hungry</t>
+  </si>
+  <si>
+    <t>Rebekah</t>
+  </si>
+  <si>
+    <t>r234yu</t>
+  </si>
+  <si>
+    <t>throws a fit</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/message/19:dca0f318c9224f4ea9972a7d80e5eeb4@thread.tacv2/1677498172116</t>
+  </si>
+  <si>
+    <t>Not thinking straight</t>
+  </si>
+  <si>
+    <t>123
+456</t>
+  </si>
+  <si>
+    <t>ready to go</t>
+  </si>
+  <si>
+    <t>2023-03-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-05-04T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-05-03T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-05-11T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-04-30T23:00:00Z</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>broken hip</t>
+  </si>
+  <si>
+    <t>Mabel</t>
+  </si>
+  <si>
+    <t>wer123re</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/message/19%3a7cc45e7d0ef0476d99cac8b5ef2d1c4b%40thread.tacv2/1682668002603</t>
+  </si>
+  <si>
+    <t>2x/day</t>
+  </si>
+  <si>
+    <t>2023-04-29T15:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-08T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-09T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-10T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-12T23:00:00Z</t>
+  </si>
+  <si>
+    <t>2023-06-15T23:00:00Z</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>we78tr</t>
+  </si>
+  <si>
+    <t>https://teams.microsoft.com/l/message/19%3adca0f318c9224f4ea9972a7d80e5eeb4%40thread.tacv2/1682601204387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">something intelligent something intelligent something intelligent something intelligent something intelligent something intelligent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">something intelligent something intelligent something intelligent </t>
+  </si>
+  <si>
+    <t>2023-07-27T09:00:00Z</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,16 +607,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF156082"/>
+        <bgColor rgb="FF156082"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -298,12 +637,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF44B3E1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF44B3E1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF44B3E1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,40 +705,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AxTable1" displayName="AxTable1" ref="A1:BZ2" totalsRowShown="0">
-  <autoFilter ref="A1:BZ2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="AxTable1" displayName="AxTable1" ref="A1:CH34" totalsRowShown="0">
+  <autoFilter ref="A1:CH34" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="86">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CHI"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Admission Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Admit Reason"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Admission Date"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Admit Reason"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="CHI"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Patient NOK"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Patient NOK Phone"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Post Code"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Aggression Concern Detail"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Aggression Concerns"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="AtBat"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Catheter"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Chat Thread"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Cognitive Issue Detail"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Cognitive Scores"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Confirm Care Restart"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Confirm Meds and Support"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Confirm Ready for Discharge"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Consent"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="CPR"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Current Hospital (Lookup)"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Current Ward (Lookup)"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Decision Capacity"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="DHD"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="District (Lookup)"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="DMT Decision"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="DMT Summary"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="EOL Wishes"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Equipment"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Equipment List"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Equipment Ordered"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Equipment Provided"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Status"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Aggression Concern Detail"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Aggression Concerns"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="AtBat"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Catheter"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Chat Thread"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Cognitive Issue Detail"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Cognitive Scores"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Confirm Care Restart"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Confirm Community Readiness"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Confirm Meds and Support"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Confirm Ready for Discharge"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Consent"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="CPR"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Current Hospital (Lookup)"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Current Ward (Lookup)"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Decision Capacity"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="DHD"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="District (Lookup)"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="DMT Decision"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="DMT Summary"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="DNR Date"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="EOL Wishes"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Equipment Avail"/>
     <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Existing Care Package"/>
     <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Fall Risk Reason"/>
     <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Falls Risk"/>
@@ -373,36 +756,44 @@
     <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="Known to Community"/>
     <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Legal Proxy Contact"/>
     <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="Life Expectancy"/>
-    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Meds Support Detail"/>
-    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Mobility Aids Used"/>
-    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Mobility Level"/>
-    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Named Lead in Community"/>
-    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Overnight Needs"/>
-    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="Package Funding"/>
-    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Palliative Awareness"/>
-    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Palliative Plan Updated"/>
-    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Pathway"/>
-    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="PDD"/>
-    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Planned Transport Time"/>
-    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="POA"/>
-    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Rehabilitation Goals"/>
-    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="S47 AWI"/>
-    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="S47 AWI Expiry"/>
-    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Scheduled Meds"/>
-    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="SHOOF Arranged"/>
-    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Syringe Driver"/>
-    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="Toilet Support"/>
-    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="Toileting"/>
-    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Transfer Aids"/>
-    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="Transfers"/>
-    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Viable Discharge Date"/>
-    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Which caseloads"/>
-    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Wound Care"/>
-    <tableColumn id="5" xr3:uid="{8B398803-E799-4DDC-9886-4EB35B95A09C}" name="Ongoing Medical Needs"/>
-    <tableColumn id="9" xr3:uid="{A871B8D9-58DE-4C59-8D04-A76A413524D8}" name="Ongoing Details"/>
-    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Created On"/>
-    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Modified By (Lookup)"/>
-    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Modified On"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Medical History"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Meds Support Detail"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Mobility Aids Used"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Mobility comments"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" name="Mobility Level"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" name="New Equipment"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" name="Ongoing Medical"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" name="Other info acute"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" name="Other info community"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" name="Overnight Needs"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" name="Package Funding"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" name="Palliative Awareness"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" name="Palliative Plan Updated"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0000-000042000000}" name="Pathway"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0000-000043000000}" name="PDD"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0000-000044000000}" name="Planned Transport Time"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0000-000045000000}" name="POA"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0000-000046000000}" name="Rehabilitation Goals"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0000-000047000000}" name="S47 AWI"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0000-000048000000}" name="S47 AWI Expiry"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0000-000049000000}" name="Scheduled Meds"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0000-00004A000000}" name="SHOOF Arranged"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0000-00004B000000}" name="Syringe Driver"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0000-00004C000000}" name="Toilet comments"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0000-00004D000000}" name="Toilet Support"/>
+    <tableColumn id="5" xr3:uid="{8B398803-E799-4DDC-9886-4EB35B95A09C}" name="Toileting"/>
+    <tableColumn id="9" xr3:uid="{A871B8D9-58DE-4C59-8D04-A76A413524D8}" name="Transfer Aids"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0000-000050000000}" name="Transfers"/>
+    <tableColumn id="82" xr3:uid="{00000000-0010-0000-0000-000052000000}" name="Viable Discharge Date"/>
+    <tableColumn id="84" xr3:uid="{00000000-0010-0000-0000-000054000000}" name="Which caseloads"/>
+    <tableColumn id="18" xr3:uid="{9C8EC55D-59D0-4194-BCAE-651C331DEA77}" name="Wound Care"/>
+    <tableColumn id="56" xr3:uid="{7E16A76D-D7FE-4E4C-9DD3-F597E3E0A6CA}" name="Created By (Lookup)"/>
+    <tableColumn id="78" xr3:uid="{ABDDFBFE-3258-4FAF-BFC9-FEA51D52D815}" name="Created On"/>
+    <tableColumn id="79" xr3:uid="{3C9FC381-02EC-48BB-B32F-2990BC2504A7}" name="Modified By (Lookup)"/>
+    <tableColumn id="81" xr3:uid="{DAF3B18D-B7A0-4BB1-8801-68BD18C1B4EE}" name="Modified On"/>
+    <tableColumn id="83" xr3:uid="{454E6AD6-954E-4799-A09D-F83A30C88ED2}" name="Current Hospital"/>
+    <tableColumn id="85" xr3:uid="{4F12F7FB-E723-4FCC-AF5A-FD6A8BF50899}" name="Current Ward"/>
+    <tableColumn id="86" xr3:uid="{58909916-1C3E-46CD-8F64-CCB2096DFD96}" name="District"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -733,13 +1124,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ1"/>
+  <dimension ref="A1:CH34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -767,7 +1158,7 @@
     <col min="24" max="24" width="7"/>
     <col min="25" max="25" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16"/>
-    <col min="27" max="27" width="15"/>
+    <col min="27" max="27" width="153.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14"/>
     <col min="29" max="29" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18"/>
@@ -797,7 +1188,7 @@
     <col min="54" max="55" width="19"/>
     <col min="56" max="56" width="24"/>
     <col min="57" max="57" width="27"/>
-    <col min="58" max="58" width="11"/>
+    <col min="58" max="58" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="7"/>
     <col min="60" max="60" width="26"/>
     <col min="61" max="61" width="7"/>
@@ -813,244 +1204,5709 @@
     <col min="75" max="75" width="18.85546875" customWidth="1"/>
     <col min="76" max="76" width="34"/>
     <col min="77" max="77" width="26"/>
-    <col min="78" max="78" width="35"/>
+    <col min="78" max="78" width="129.85546875" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:86">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" ht="45.75">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3">
+        <v>1231461237</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3">
+        <v>7234823462</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:86" ht="45.75">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>1231461237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>7234823462</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:86">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>4132483214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5">
+        <v>55555555555</v>
+      </c>
+      <c r="G5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>812180001</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>1</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA5">
+        <v>162760001</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="AD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK5">
+        <v>812180001</v>
+      </c>
+      <c r="AL5">
+        <v>812180001</v>
+      </c>
+      <c r="AM5">
+        <v>2</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV5">
+        <v>812180001</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX5">
+        <v>812180001</v>
+      </c>
+      <c r="AY5">
+        <v>812180001</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>8.1218000181217997E+17</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>4</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH5">
+        <v>812180000</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL5">
+        <v>812180001</v>
+      </c>
+      <c r="BM5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO5">
+        <v>162760001</v>
+      </c>
+      <c r="BP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ5">
+        <v>812180002</v>
+      </c>
+      <c r="BR5">
+        <v>812180001</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="BU5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:86">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>4132483214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6">
+        <v>55555555555</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>812180001</v>
+      </c>
+      <c r="L6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>1</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" t="s">
+        <v>102</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA6">
+        <v>162760001</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="AD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK6">
+        <v>812180001</v>
+      </c>
+      <c r="AL6">
+        <v>812180001</v>
+      </c>
+      <c r="AM6">
+        <v>2</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV6">
+        <v>812180001</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX6">
+        <v>812180001</v>
+      </c>
+      <c r="AY6">
+        <v>812180001</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>8.1218000181217997E+17</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE6">
+        <v>4</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>104</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH6">
+        <v>812180000</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL6">
+        <v>812180001</v>
+      </c>
+      <c r="BM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>162760001</v>
+      </c>
+      <c r="BP6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ6">
+        <v>812180002</v>
+      </c>
+      <c r="BR6">
+        <v>812180001</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT6" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="BU6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:86" ht="45.75">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>1231461237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>7234823462</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>1</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" t="s">
+        <v>112</v>
+      </c>
+      <c r="V7" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>8.1218000681218003E+26</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2"/>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA7" s="2"/>
+      <c r="BB7">
+        <v>4</v>
+      </c>
+      <c r="BC7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE7">
+        <v>4</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT7" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:86" ht="45.75">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>1231461237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8">
+        <v>7234823462</v>
+      </c>
+      <c r="G8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="s">
+        <v>94</v>
+      </c>
+      <c r="U8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>8.1218000681218003E+26</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2"/>
+      <c r="AD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA8" s="2"/>
+      <c r="BB8">
+        <v>4</v>
+      </c>
+      <c r="BC8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE8">
+        <v>4</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT8" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:86" ht="45.75">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>1231461237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
+        <v>7234823462</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>1</v>
+      </c>
+      <c r="R9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>8.1218000681218003E+26</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2"/>
+      <c r="AD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA9" s="2"/>
+      <c r="BB9">
+        <v>4</v>
+      </c>
+      <c r="BC9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE9">
+        <v>4</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT9" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:86" ht="45.75">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>1231461237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10">
+        <v>7234823462</v>
+      </c>
+      <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>812180002</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="s">
+        <v>100</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>1</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>94</v>
+      </c>
+      <c r="U10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>8.1218000681218003E+26</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="AD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK10">
+        <v>812180002</v>
+      </c>
+      <c r="AL10">
+        <v>812180002</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX10">
+        <v>812180003</v>
+      </c>
+      <c r="AY10">
+        <v>812180002</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>8.1218000281217997E+17</v>
+      </c>
+      <c r="BB10">
+        <v>4</v>
+      </c>
+      <c r="BC10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE10">
+        <v>4</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH10">
+        <v>812180000</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO10">
+        <v>162760002</v>
+      </c>
+      <c r="BP10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ10">
+        <v>812180000</v>
+      </c>
+      <c r="BR10">
+        <v>812180001</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:86">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>1234568232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11">
+        <v>7234692345</v>
+      </c>
+      <c r="G11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="N11" s="1">
+        <v>123</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <v>1</v>
+      </c>
+      <c r="S11" t="b">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s">
+        <v>125</v>
+      </c>
+      <c r="U11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" t="b">
+        <v>1</v>
+      </c>
+      <c r="X11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y11" s="2"/>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2"/>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA11" s="2"/>
+      <c r="BC11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE11">
+        <v>2</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT11" s="2"/>
+      <c r="BU11" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:86" ht="45.75">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>1231461237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <v>7234823462</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>812180002</v>
+      </c>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" t="s">
+        <v>100</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>94</v>
+      </c>
+      <c r="U12" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <v>1</v>
+      </c>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="AD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK12">
+        <v>812180002</v>
+      </c>
+      <c r="AL12">
+        <v>812180002</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX12">
+        <v>812180003</v>
+      </c>
+      <c r="AY12">
+        <v>812180002</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>8.1218000281217997E+17</v>
+      </c>
+      <c r="BB12">
+        <v>4</v>
+      </c>
+      <c r="BC12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>4</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH12">
+        <v>812180000</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <v>162760002</v>
+      </c>
+      <c r="BP12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>812180000</v>
+      </c>
+      <c r="BR12">
+        <v>812180001</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>96</v>
+      </c>
+      <c r="BT12" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU12" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:86">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>1234568232</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13">
+        <v>7234692345</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="1">
+        <v>123</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>1</v>
+      </c>
+      <c r="S13" t="b">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>125</v>
+      </c>
+      <c r="U13" t="s">
+        <v>102</v>
+      </c>
+      <c r="V13" t="b">
+        <v>1</v>
+      </c>
+      <c r="W13" t="b">
+        <v>1</v>
+      </c>
+      <c r="X13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2"/>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA13" s="2"/>
+      <c r="BC13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE13">
+        <v>2</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT13" s="2"/>
+      <c r="BU13" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX13" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY13" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:86">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <v>1234568232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14">
+        <v>7234692345</v>
+      </c>
+      <c r="G14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="1">
+        <v>123</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>1</v>
+      </c>
+      <c r="S14" t="b">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" t="s">
+        <v>102</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X14" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y14" s="2"/>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2"/>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA14" s="2"/>
+      <c r="BC14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>2</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT14" s="2"/>
+      <c r="BU14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:86">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15">
+        <v>3212375893</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15">
+        <v>712343245</v>
+      </c>
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>1</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
+        <v>94</v>
+      </c>
+      <c r="U15" t="s">
+        <v>112</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>1</v>
+      </c>
+      <c r="X15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>8.1218000281217997E+17</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="2"/>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2"/>
+      <c r="BC15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>4</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BT15" s="2"/>
+      <c r="BU15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:86" ht="60.75">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16">
+        <v>41234252</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16">
+        <v>723424512</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>1</v>
+      </c>
+      <c r="S16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>125</v>
+      </c>
+      <c r="U16" t="s">
+        <v>145</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>8.1218000281217995E+26</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA16">
+        <v>162760002</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2"/>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA16" s="2"/>
+      <c r="BB16">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE16">
+        <v>4</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>148</v>
+      </c>
+      <c r="BJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT16" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU16" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:78" ht="30.75">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>234568323</v>
+      </c>
+      <c r="C17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17">
+        <v>2345234523</v>
+      </c>
+      <c r="G17" t="s">
+        <v>153</v>
+      </c>
+      <c r="H17" t="s">
+        <v>154</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>155</v>
+      </c>
+      <c r="M17" t="s">
+        <v>156</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>1</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>125</v>
+      </c>
+      <c r="U17" t="s">
+        <v>102</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>1</v>
+      </c>
+      <c r="X17" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1"/>
+      <c r="AH17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="2"/>
+      <c r="BC17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>3</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>96</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>160</v>
+      </c>
+      <c r="BT17" s="2"/>
+      <c r="BU17" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX17" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY17" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:78" ht="45.75">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>1231461237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18">
+        <v>7234823462</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>812180002</v>
+      </c>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>1</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+      <c r="T18" t="s">
+        <v>94</v>
+      </c>
+      <c r="U18" t="s">
+        <v>112</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="AD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK18">
+        <v>812180002</v>
+      </c>
+      <c r="AL18">
+        <v>812180002</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX18">
+        <v>812180003</v>
+      </c>
+      <c r="AY18">
+        <v>812180002</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>8.1218000281217997E+17</v>
+      </c>
+      <c r="BB18">
+        <v>4</v>
+      </c>
+      <c r="BC18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE18">
+        <v>4</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH18">
+        <v>812180000</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO18">
+        <v>162760002</v>
+      </c>
+      <c r="BP18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
+        <v>812180000</v>
+      </c>
+      <c r="BR18">
+        <v>812180001</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT18" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW18" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY18" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:78">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19">
+        <v>1234568232</v>
+      </c>
+      <c r="C19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19">
+        <v>7234692345</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" s="1">
+        <v>123</v>
+      </c>
+      <c r="O19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>1</v>
+      </c>
+      <c r="S19" t="b">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>125</v>
+      </c>
+      <c r="U19" t="s">
+        <v>102</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+      <c r="X19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="1"/>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2"/>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1"/>
+      <c r="AH19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA19" s="2"/>
+      <c r="BC19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE19">
+        <v>2</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>106</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>163</v>
+      </c>
+      <c r="BT19" s="2"/>
+      <c r="BU19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:78">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>4132483214</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20">
+        <v>55555555555</v>
+      </c>
+      <c r="G20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>812180001</v>
+      </c>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s">
+        <v>100</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+      <c r="T20" t="s">
+        <v>101</v>
+      </c>
+      <c r="U20" t="s">
+        <v>102</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA20">
+        <v>162760001</v>
+      </c>
+      <c r="AB20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="AD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK20">
+        <v>812180001</v>
+      </c>
+      <c r="AL20">
+        <v>812180001</v>
+      </c>
+      <c r="AM20">
+        <v>2</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AV20">
+        <v>812180001</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX20">
+        <v>812180001</v>
+      </c>
+      <c r="AY20">
+        <v>812180001</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>8.1218000181217997E+17</v>
+      </c>
+      <c r="BB20">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE20">
+        <v>4</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>105</v>
+      </c>
+      <c r="BH20">
+        <v>812180000</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL20">
+        <v>812180001</v>
+      </c>
+      <c r="BM20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO20">
+        <v>162760001</v>
+      </c>
+      <c r="BP20" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ20">
+        <v>812180002</v>
+      </c>
+      <c r="BR20">
+        <v>812180001</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>104</v>
+      </c>
+      <c r="BT20" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="BU20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:78" ht="45.75">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21">
+        <v>1231461237</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21">
+        <v>7234823462</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>812180002</v>
+      </c>
+      <c r="L21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" t="s">
+        <v>100</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" t="s">
+        <v>94</v>
+      </c>
+      <c r="U21" t="s">
+        <v>112</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK21">
+        <v>812180002</v>
+      </c>
+      <c r="AL21">
+        <v>812180002</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX21">
+        <v>812180003</v>
+      </c>
+      <c r="AY21">
+        <v>812180002</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>8.1218000281217997E+17</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>4</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH21">
+        <v>812180000</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO21">
+        <v>162760002</v>
+      </c>
+      <c r="BP21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ21">
+        <v>812180000</v>
+      </c>
+      <c r="BR21">
+        <v>812180001</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT21" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:78">
+      <c r="A22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22">
+        <v>423490454</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F22">
+        <v>723453456</v>
+      </c>
+      <c r="G22" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>125</v>
+      </c>
+      <c r="U22" t="s">
+        <v>102</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="1"/>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2"/>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1"/>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="2"/>
+      <c r="BC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE22">
+        <v>4</v>
+      </c>
+      <c r="BJ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT22" s="2"/>
+      <c r="BU22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:78">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23">
+        <v>423490454</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23">
+        <v>723453456</v>
+      </c>
+      <c r="G23" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>168</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>125</v>
+      </c>
+      <c r="U23" t="s">
+        <v>102</v>
+      </c>
+      <c r="V23" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="1"/>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2"/>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="2"/>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE23">
+        <v>4</v>
+      </c>
+      <c r="BJ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT23" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="BU23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:78">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24">
+        <v>423490454</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24">
+        <v>723453456</v>
+      </c>
+      <c r="G24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>812180001</v>
+      </c>
+      <c r="L24" t="s">
+        <v>168</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>125</v>
+      </c>
+      <c r="U24" t="s">
+        <v>102</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="1"/>
+      <c r="AB24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY24">
+        <v>812180003</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>8.1218000181217997E+17</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE24">
+        <v>4</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH24">
+        <v>812180001</v>
+      </c>
+      <c r="BJ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO24">
+        <v>162760001</v>
+      </c>
+      <c r="BP24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="BU24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:78">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25">
+        <v>423490454</v>
+      </c>
+      <c r="C25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25">
+        <v>723453456</v>
+      </c>
+      <c r="G25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>812180001</v>
+      </c>
+      <c r="L25" t="s">
+        <v>168</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>125</v>
+      </c>
+      <c r="U25" t="s">
+        <v>102</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AB25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY25">
+        <v>812180003</v>
+      </c>
+      <c r="BA25" s="2">
+        <v>8.1218000181217997E+17</v>
+      </c>
+      <c r="BB25">
+        <v>2</v>
+      </c>
+      <c r="BC25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE25">
+        <v>4</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH25">
+        <v>812180001</v>
+      </c>
+      <c r="BJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO25">
+        <v>162760001</v>
+      </c>
+      <c r="BP25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT25" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="BU25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:78">
+      <c r="A26" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26">
+        <v>423490454</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26">
+        <v>723453456</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>812180001</v>
+      </c>
+      <c r="L26" t="s">
+        <v>168</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>125</v>
+      </c>
+      <c r="U26" t="s">
+        <v>102</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="Z26" s="1"/>
+      <c r="AB26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY26">
+        <v>812180003</v>
+      </c>
+      <c r="BA26" s="2">
+        <v>8.1218000181217997E+17</v>
+      </c>
+      <c r="BB26">
+        <v>2</v>
+      </c>
+      <c r="BC26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE26">
+        <v>4</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>160</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH26">
+        <v>812180001</v>
+      </c>
+      <c r="BJ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BO26">
+        <v>162760001</v>
+      </c>
+      <c r="BP26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT26" s="2">
+        <v>1.6276000116276E+17</v>
+      </c>
+      <c r="BU26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:78" ht="45.75">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27">
+        <v>1231461237</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27">
+        <v>7234823462</v>
+      </c>
+      <c r="G27" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>812180002</v>
+      </c>
+      <c r="L27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M27" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27" t="b">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
+        <v>94</v>
+      </c>
+      <c r="U27" t="s">
+        <v>112</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+      <c r="X27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="AD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK27">
+        <v>812180002</v>
+      </c>
+      <c r="AL27">
+        <v>812180002</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX27">
+        <v>812180003</v>
+      </c>
+      <c r="AY27">
+        <v>812180002</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA27" s="2">
+        <v>8.1218000281217997E+17</v>
+      </c>
+      <c r="BB27">
+        <v>4</v>
+      </c>
+      <c r="BC27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE27">
+        <v>4</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH27">
+        <v>812180000</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>162760002</v>
+      </c>
+      <c r="BP27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>812180000</v>
+      </c>
+      <c r="BR27">
+        <v>812180001</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT27" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:78" ht="45.75">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28">
+        <v>1231461237</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28">
+        <v>7234823462</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>812180002</v>
+      </c>
+      <c r="L28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M28" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <v>0</v>
+      </c>
+      <c r="T28" t="s">
+        <v>94</v>
+      </c>
+      <c r="U28" t="s">
+        <v>112</v>
+      </c>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+      <c r="X28" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="AD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK28">
+        <v>812180002</v>
+      </c>
+      <c r="AL28">
+        <v>812180002</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AX28">
+        <v>812180003</v>
+      </c>
+      <c r="AY28">
+        <v>812180002</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA28" s="2">
+        <v>8.1218000281217997E+17</v>
+      </c>
+      <c r="BB28">
+        <v>4</v>
+      </c>
+      <c r="BC28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE28">
+        <v>3</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>171</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH28">
+        <v>812180000</v>
+      </c>
+      <c r="BI28" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK28" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BO28">
+        <v>162760002</v>
+      </c>
+      <c r="BP28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>812180000</v>
+      </c>
+      <c r="BR28">
+        <v>812180001</v>
+      </c>
+      <c r="BS28" t="s">
+        <v>172</v>
+      </c>
+      <c r="BT28" s="2">
+        <v>1.6276000016276E+17</v>
+      </c>
+      <c r="BU28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW28" t="s">
+        <v>100</v>
+      </c>
+      <c r="BX28" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY28" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:78" ht="30.75">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29">
+        <v>234568323</v>
+      </c>
+      <c r="C29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29">
+        <v>2345234523</v>
+      </c>
+      <c r="G29" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" t="s">
+        <v>156</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="O29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s">
+        <v>125</v>
+      </c>
+      <c r="U29" t="s">
+        <v>102</v>
+      </c>
+      <c r="V29" t="b">
+        <v>1</v>
+      </c>
+      <c r="W29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>8.1218000281217995E+26</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="2"/>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="1"/>
+      <c r="AH29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="2"/>
+      <c r="BC29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>3</v>
+      </c>
+      <c r="BF29" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG29" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS29" t="s">
+        <v>174</v>
+      </c>
+      <c r="BT29" s="2"/>
+      <c r="BU29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY29" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:78">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30">
+        <v>3212375893</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30">
+        <v>712343245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+      <c r="R30" t="b">
+        <v>1</v>
+      </c>
+      <c r="S30" t="b">
+        <v>0</v>
+      </c>
+      <c r="T30" t="s">
+        <v>94</v>
+      </c>
+      <c r="U30" t="s">
+        <v>112</v>
+      </c>
+      <c r="V30" t="b">
+        <v>1</v>
+      </c>
+      <c r="W30" t="b">
+        <v>1</v>
+      </c>
+      <c r="X30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>8.1218000281217997E+17</v>
+      </c>
+      <c r="Z30" s="1"/>
+      <c r="AB30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="2"/>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="1"/>
+      <c r="AH30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="2"/>
+      <c r="BC30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>4</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>174</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>137</v>
+      </c>
+      <c r="BJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT30" s="2"/>
+      <c r="BU30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX30" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY30" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:78">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31">
+        <v>5423921349</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31">
+        <v>7324592345</v>
+      </c>
+      <c r="G31" t="s">
+        <v>179</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>180</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+      <c r="R31" t="b">
+        <v>0</v>
+      </c>
+      <c r="S31" t="b">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s">
+        <v>94</v>
+      </c>
+      <c r="U31" t="s">
+        <v>112</v>
+      </c>
+      <c r="V31" t="b">
+        <v>0</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31">
+        <v>162760002</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2"/>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="1"/>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA31" s="2"/>
+      <c r="BB31">
+        <v>2</v>
+      </c>
+      <c r="BC31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>4</v>
+      </c>
+      <c r="BJ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT31" s="2"/>
+      <c r="BU31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX31" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY31" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:78">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32">
+        <v>5423921349</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32">
+        <v>7324592345</v>
+      </c>
+      <c r="G32" t="s">
+        <v>179</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>180</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>0</v>
+      </c>
+      <c r="R32" t="b">
+        <v>0</v>
+      </c>
+      <c r="S32" t="b">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s">
+        <v>94</v>
+      </c>
+      <c r="U32" t="s">
+        <v>112</v>
+      </c>
+      <c r="V32" t="b">
+        <v>0</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32">
+        <v>162760002</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2"/>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="1"/>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BA32" s="2"/>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>4</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>172</v>
+      </c>
+      <c r="BJ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BM32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BN32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BP32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT32" s="2"/>
+      <c r="BU32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BV32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BX32" t="s">
+        <v>115</v>
+      </c>
+      <c r="BY32" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:83" ht="183">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33">
+        <v>41234252</v>
+      </c>
+      <c r="C33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33">
+        <v>723424512</v>
+      </c>
+      <c r="G33" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>144</v>
+      </c>
+      <c r="M33" t="s">
+        <v>181</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33" t="b">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s">
+        <v>125</v>
+      </c>
+      <c r="U33" t="s">
+        <v>145</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>1</v>
+      </c>
+      <c r="X33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>1.6276000181217999E+116</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA33">
+        <v>162760002</v>
+      </c>
+      <c r="AC33" s="2"/>
+      <c r="AE33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK33">
+        <v>812180001</v>
+      </c>
+      <c r="AL33">
+        <v>812180000</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV33">
+        <v>812180001</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX33">
+        <v>812180004</v>
+      </c>
+      <c r="AY33">
+        <v>812180003</v>
+      </c>
+      <c r="BA33" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="BB33">
+        <v>1</v>
+      </c>
+      <c r="BC33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BE33">
+        <v>4</v>
+      </c>
+      <c r="BF33" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG33" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH33">
+        <v>812180001</v>
+      </c>
+      <c r="BI33" t="s">
+        <v>181</v>
+      </c>
+      <c r="BJ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>812180001</v>
+      </c>
+      <c r="BM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BP33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BQ33">
+        <v>812180001</v>
+      </c>
+      <c r="BR33">
+        <v>812180003</v>
+      </c>
+      <c r="BS33" t="s">
+        <v>106</v>
+      </c>
+      <c r="BT33" s="2">
+        <v>1.6276000016275999E+98</v>
+      </c>
+      <c r="BU33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BV33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BX33" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY33" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:83" ht="91.5">
+      <c r="A34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34">
+        <v>41234252</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34">
+        <v>723424512</v>
+      </c>
+      <c r="G34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>144</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34" t="b">
+        <v>1</v>
+      </c>
+      <c r="T34" t="b">
+        <v>1</v>
+      </c>
+      <c r="U34" t="b">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>125</v>
+      </c>
+      <c r="W34" t="s">
+        <v>145</v>
+      </c>
+      <c r="X34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>1.6276000181217999E+116</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC34" s="2"/>
+      <c r="AD34">
+        <v>162760002</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK34">
+        <v>812180001</v>
+      </c>
+      <c r="AL34">
+        <v>812180000</v>
+      </c>
+      <c r="AM34">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV34">
+        <v>812180001</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY34">
+        <v>812180004</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA34" s="2">
+        <v>812180003</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BD34" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF34" s="2">
+        <v>8.1218000181218004E+26</v>
+      </c>
+      <c r="BG34">
+        <v>1</v>
+      </c>
+      <c r="BH34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BJ34">
+        <v>4</v>
+      </c>
+      <c r="BK34" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL34" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM34">
+        <v>812180001</v>
+      </c>
+      <c r="BN34" t="s">
+        <v>181</v>
+      </c>
+      <c r="BO34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>812180001</v>
+      </c>
+      <c r="BR34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BS34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BT34" s="2"/>
+      <c r="BV34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BW34">
+        <v>812180001</v>
+      </c>
+      <c r="BX34">
+        <v>812180003</v>
+      </c>
+      <c r="BY34" t="s">
+        <v>106</v>
+      </c>
+      <c r="BZ34" s="2">
+        <v>1.6276000016275999E+98</v>
+      </c>
+      <c r="CA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="CC34" t="s">
+        <v>107</v>
+      </c>
+      <c r="CD34" t="s">
+        <v>111</v>
+      </c>
+      <c r="CE34" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1071,12 +6927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010061511DD009DE0740A446A9C472ABF3B4" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2b569ae1f3354636cb202c2e3dccf0dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0ad0b561-89ec-4ec9-9794-551443db410d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="789bdfc3412807bbe34a61a2506eda60" ns2:_="">
     <xsd:import namespace="0ad0b561-89ec-4ec9-9794-551443db410d"/>
@@ -1220,7 +7070,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1229,39 +7079,22 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07370DA8-2ABB-4087-9C74-3350504631A4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEB9563-15FD-47A9-987C-642CE7F6F009}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DEB9563-15FD-47A9-987C-642CE7F6F009}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="0ad0b561-89ec-4ec9-9794-551443db410d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD9B9C74-374B-4105-8F0C-DB154B4F33AD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD9B9C74-374B-4105-8F0C-DB154B4F33AD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07370DA8-2ABB-4087-9C74-3350504631A4}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
